--- a/api/svg/use_cut.xlsx
+++ b/api/svg/use_cut.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="24750" windowHeight="10480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shortkey" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="v" sheetId="2" r:id="rId2"/>
+    <sheet name="keyboard" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" hidden="1">v!$A$1:$A$38</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="212">
   <si>
     <t>key</t>
   </si>
@@ -82,6 +86,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>SA+</t>
     </r>
     <r>
@@ -279,6 +290,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>CS +</t>
     </r>
     <r>
@@ -349,21 +367,399 @@
   <si>
     <t>C G：line</t>
   </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>map hl createTab url="https://leetprogram.cn/problemset/all/"</t>
+  </si>
+  <si>
+    <t>map hn createTab url="https://www.nowprogramr.com/exam/oj?page=1"</t>
+  </si>
+  <si>
+    <t>map ht createTab url="https://time.geekbang.org/"</t>
+  </si>
+  <si>
+    <t>map hg createTab url="https://github.com/trending"</t>
+  </si>
+  <si>
+    <t>map ho createTab url="https://web.okjike.com/"</t>
+  </si>
+  <si>
+    <t>map hj createTab url="https://juejin.cn/recommended"</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>map h1 createTab url="https://www.yuque.com/search?q="</t>
+  </si>
+  <si>
+    <t>map g3 createTab url="https://36kr.com/"</t>
+  </si>
+  <si>
+    <t>map g0 createTab url="https://xueqiu.com/"</t>
+  </si>
+  <si>
+    <t>map g1 createTab url="https://www.semrush.com/blog/most-visited-websites/"</t>
+  </si>
+  <si>
+    <t>iplay</t>
+  </si>
+  <si>
+    <t>map g2 createTab url="https://www.v2ex.com/"</t>
+  </si>
+  <si>
+    <t>map go createTab url="http://www.google.com"</t>
+  </si>
+  <si>
+    <t>map hc createTab url="https://chat.openai.com/"</t>
+  </si>
+  <si>
+    <t>map gk createTab url="https://kimi.moonshot.cn/"</t>
+  </si>
+  <si>
+    <t>map gp createTab url="https://tophub.today/apple/podcasts"</t>
+  </si>
+  <si>
+    <t>map gb createTab url="https://www.bilibili.com/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map hk createTab url="https://ke.qq.com/" </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map ga createTab url="https://www.ahhhhfs.com/recourse/programming-development/" </t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>map ge createTab url="https://www.edx.org/"</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map gc createTab url="https://www.coursera.org/" </t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map gu createTab url="https://www.udacity.com/" </t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>map gw createTab url="https://weread.qq.com/web/category/newrating_publish"</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>map gy createTab url="https://www.youtube.com/"</t>
+  </si>
+  <si>
+    <t>map gd createTab url="https://discord.com/guild-discovery"</t>
+  </si>
+  <si>
+    <t>amuse</t>
+  </si>
+  <si>
+    <t>map gn createTab url="https://www.nature.com/news"</t>
+  </si>
+  <si>
+    <t>map gr createTab url="https://www.reddit.com/"</t>
+  </si>
+  <si>
+    <t>map gx createTab url="https://www.xiaohongshu.com/explore"</t>
+  </si>
+  <si>
+    <t>map gm createTab url="https://medium.com/"</t>
+  </si>
+  <si>
+    <t>map ce createTab url="https://www.economist.com/"</t>
+  </si>
+  <si>
+    <t>map gt createTab url="https://twitter.com/home/"</t>
+  </si>
+  <si>
+    <t>map gz createTab url="https://www.zhihu.com/knowledge-plan/hot-question/hot/0/week"</t>
+  </si>
+  <si>
+    <t>map gf createTab url="https://www.facebook.com/"</t>
+  </si>
+  <si>
+    <t>map he createTab url="https://edition.cnn.com/world"</t>
+  </si>
+  <si>
+    <t>map hy createTab url="https://news.ycombinator.com/"</t>
+  </si>
+  <si>
+    <t>map hw createTab url="https://www.wsj.com/"</t>
+  </si>
+  <si>
+    <t>map cw createTab url="https://en.wikipedia.org/wiki/Main_Page"</t>
+  </si>
+  <si>
+    <t>map zt createTab url="https://www.tadu.com/"</t>
+  </si>
+  <si>
+    <t>map zi createTab url="https://www.instagram.com/"</t>
+  </si>
+  <si>
+    <t>map zr createTab url="https://www.rottentomatoes.com/m/bottoms"</t>
+  </si>
+  <si>
+    <t>map zs createTab url="https://open.spotify.com/"</t>
+  </si>
+  <si>
+    <t>map zc createTab url="https://cupfox.app/"</t>
+  </si>
+  <si>
+    <t>map js createTab url="https://sspai.com/"</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2@</t>
+  </si>
+  <si>
+    <t>g3#</t>
+  </si>
+  <si>
+    <t>4$</t>
+  </si>
+  <si>
+    <t>6^</t>
+  </si>
+  <si>
+    <t>7&amp;</t>
+  </si>
+  <si>
+    <t>8*</t>
+  </si>
+  <si>
+    <t>9(</t>
+  </si>
+  <si>
+    <t>0)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>BACKSPACE</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>ghW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ghcE</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ghTz</t>
+  </si>
+  <si>
+    <t>ghY</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Iz</t>
+  </si>
+  <si>
+    <t>ghO</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>CAPSLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gA</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>gD</t>
+  </si>
+  <si>
+    <t>gF</t>
+  </si>
+  <si>
+    <t>hG</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>hJ</t>
+  </si>
+  <si>
+    <t>hK</t>
+  </si>
+  <si>
+    <t>hL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> :</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>ENTER</t>
+  </si>
+  <si>
+    <t>SHIFT</t>
+  </si>
+  <si>
+    <t>gZ</t>
+  </si>
+  <si>
+    <t>gX</t>
+  </si>
+  <si>
+    <t>gC</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>gB</t>
+  </si>
+  <si>
+    <t>ghN</t>
+  </si>
+  <si>
+    <t>gM</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHIFT</t>
+  </si>
+  <si>
+    <t>CTRL</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>hl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Cascadia Code ExtraLight"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -519,19 +915,49 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -553,12 +979,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -738,12 +1158,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -929,196 +1429,271 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1647,506 +2222,506 @@
   <sheetPr/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.4545454545455" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.3636363636364" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5454545454545" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.2727272727273" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.1818181818182" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.8181818181818" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.0909090909091" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.72727272727273" style="4"/>
+    <col min="1" max="1" width="14.4545454545455" style="32" customWidth="1"/>
+    <col min="2" max="2" width="13.3636363636364" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.5454545454545" style="24" customWidth="1"/>
+    <col min="4" max="4" width="17.2727272727273" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.1818181818182" style="34" customWidth="1"/>
+    <col min="6" max="6" width="13.8181818181818" style="24" customWidth="1"/>
+    <col min="7" max="7" width="15.0909090909091" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="8.72727272727273" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="31" customFormat="1" spans="1:9">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12"/>
+      <c r="A4" s="40"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="40"/>
+      <c r="C6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="40"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="40"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="42"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="10"/>
-      <c r="E17" s="18"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="38"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="E19" s="5" t="s">
+      <c r="A19" s="40"/>
+      <c r="E19" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="12"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="40"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="39" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="12"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="12"/>
-      <c r="H28" s="4" t="s">
+      <c r="A28" s="40"/>
+      <c r="H28" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="12"/>
-      <c r="C33" s="5" t="s">
+      <c r="A33" s="40"/>
+      <c r="C33" s="34" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="12"/>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="40"/>
+      <c r="C34" s="24" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="12"/>
+      <c r="A35" s="40"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="12"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="12"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="40"/>
+      <c r="B38" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="12"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="16"/>
-      <c r="C40" s="4" t="s">
+      <c r="A40" s="42"/>
+      <c r="C40" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="14"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="40"/>
+      <c r="B41" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="24" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="14"/>
+      <c r="A42" s="40"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="14"/>
+      <c r="A43" s="40"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="14"/>
+      <c r="A44" s="40"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="34" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="14"/>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="40"/>
+      <c r="B46" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="34" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="14"/>
+      <c r="A48" s="40"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="14"/>
+      <c r="A49" s="40"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="14"/>
+      <c r="A50" s="40"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="14"/>
+      <c r="A51" s="40"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="14"/>
+      <c r="A52" s="40"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="19"/>
+      <c r="A53" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2166,14 +2741,1171 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="82.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="9.49090909090909" style="24" customWidth="1"/>
+    <col min="4" max="4" width="7.50909090909091" style="24" customWidth="1"/>
+    <col min="5" max="5" width="7.63636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="26" t="str">
+        <f t="shared" ref="C2:C43" si="0">MID(B2,5,3)</f>
+        <v>hl </v>
+      </c>
+      <c r="D2" s="26">
+        <f t="shared" ref="D2:D43" si="1">VLOOKUP(A2,$O$18:$P$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="25" t="str">
+        <f t="shared" ref="E2:E43" si="2">MID(B2,SEARCH("http",B2),LEN(B2)-SEARCH("http",B2))</f>
+        <v>https://leetprogram.cn/problemset/all/</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>hn </v>
+      </c>
+      <c r="D3" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.nowprogramr.com/exam/oj?page=1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>ht </v>
+      </c>
+      <c r="D4" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://time.geekbang.org/</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>hg </v>
+      </c>
+      <c r="D5" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://github.com/trending</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>ho </v>
+      </c>
+      <c r="D6" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://web.okjike.com/</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>hj </v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://juejin.cn/recommended</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>h1 </v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.yuque.com/search?q=</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>g3 </v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://36kr.com/</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>g0 </v>
+      </c>
+      <c r="D10" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://xueqiu.com/</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>g1 </v>
+      </c>
+      <c r="D11" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.semrush.com/blog/most-visited-websites/</v>
+      </c>
+      <c r="O11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>g2 </v>
+      </c>
+      <c r="D12" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.v2ex.com/</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>go </v>
+      </c>
+      <c r="D13" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>http://www.google.com</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>hc </v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://chat.openai.com/</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gk </v>
+      </c>
+      <c r="D15" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://kimi.moonshot.cn/</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gp </v>
+      </c>
+      <c r="D16" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://tophub.today/apple/podcasts</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gb </v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.bilibili.com/</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>hk </v>
+      </c>
+      <c r="D18" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ke.qq.com/"</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>ga </v>
+      </c>
+      <c r="D19" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.ahhhhfs.com/recourse/programming-development/"</v>
+      </c>
+      <c r="O19" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>ge </v>
+      </c>
+      <c r="D20" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.edx.org/</v>
+      </c>
+      <c r="O20" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gc </v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.coursera.org/"</v>
+      </c>
+      <c r="O21" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gu </v>
+      </c>
+      <c r="D22" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.udacity.com/"</v>
+      </c>
+      <c r="O22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gw </v>
+      </c>
+      <c r="D23" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://weread.qq.com/web/category/newrating_publish</v>
+      </c>
+      <c r="O23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gy </v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.youtube.com/</v>
+      </c>
+      <c r="O24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gd </v>
+      </c>
+      <c r="D25" s="26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://discord.com/guild-discovery</v>
+      </c>
+      <c r="O25" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gn </v>
+      </c>
+      <c r="D26" s="26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.nature.com/news</v>
+      </c>
+      <c r="O26" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gr </v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.reddit.com/</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gx </v>
+      </c>
+      <c r="D28" s="26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiaohongshu.com/explore</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gm </v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E29" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://medium.com/</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>ce </v>
+      </c>
+      <c r="D30" s="26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E30" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.economist.com/</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gt </v>
+      </c>
+      <c r="D31" s="26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://twitter.com/home/</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gz </v>
+      </c>
+      <c r="D32" s="26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.zhihu.com/knowledge-plan/hot-question/hot/0/week</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>gf </v>
+      </c>
+      <c r="D33" s="26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.facebook.com/</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>he </v>
+      </c>
+      <c r="D34" s="26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://edition.cnn.com/world</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>hy </v>
+      </c>
+      <c r="D35" s="26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://news.ycombinator.com/</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>hw </v>
+      </c>
+      <c r="D36" s="26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E36" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wsj.com/</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>cw </v>
+      </c>
+      <c r="D37" s="26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E37" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://en.wikipedia.org/wiki/Main_Page</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>zt </v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E38" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.tadu.com/</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>zi </v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E39" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.instagram.com/</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>zr </v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E40" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.rottentomatoes.com/m/bottoms</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>zs </v>
+      </c>
+      <c r="D41" s="26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E41" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://open.spotify.com/</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>zc </v>
+      </c>
+      <c r="D42" s="26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E42" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://cupfox.app/</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>js </v>
+      </c>
+      <c r="D43" s="26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E43" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://sspai.com/</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" ht="35" customHeight="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" ht="46" customHeight="1" spans="1:14">
+      <c r="A2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" ht="38" customHeight="1" spans="1:14">
+      <c r="A3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" ht="44" customHeight="1" spans="1:14">
+      <c r="A4" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" ht="46" customHeight="1" spans="1:14">
+      <c r="A5" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="12:12">
+      <c r="L10" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:I5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/api/svg/use_cut.xlsx
+++ b/api/svg/use_cut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="shortkey" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="keyboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1">v!$A$1:$A$38</definedName>
+    <definedName name="_xlnm._FilterDatabase">v!$A$1:$A$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="251">
   <si>
     <t>key</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Tabby</t>
   </si>
   <si>
+    <t>Vim</t>
+  </si>
+  <si>
     <t>MarkText</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>Edge</t>
   </si>
   <si>
+    <t>F3</t>
+  </si>
+  <si>
     <t>Searcch</t>
   </si>
   <si>
@@ -70,35 +76,64 @@
     <t>SS  CS+  F</t>
   </si>
   <si>
+    <t xml:space="preserve">/ ? </t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
     <t>File</t>
   </si>
   <si>
     <t>C E</t>
   </si>
   <si>
+    <t xml:space="preserve"> n N</t>
+  </si>
+  <si>
     <t>C E :code</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>kimi,clash</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>xmind</t>
+  </si>
+  <si>
     <t>Copy/Paste</t>
   </si>
   <si>
     <t>CS+ CV</t>
+  </si>
+  <si>
+    <t>tabby</t>
+  </si>
+  <si>
+    <t>eng</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>SA+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -106,6 +141,12 @@
     </r>
   </si>
   <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
     <t>Settings</t>
   </si>
   <si>
@@ -115,9 +156,15 @@
     <t>CA  S</t>
   </si>
   <si>
+    <t>:set number</t>
+  </si>
+  <si>
     <t>C 1</t>
   </si>
   <si>
+    <t>ding</t>
+  </si>
+  <si>
     <t>Shortcut</t>
   </si>
   <si>
@@ -127,6 +174,15 @@
     <t>CAS S</t>
   </si>
   <si>
+    <t>navicat</t>
+  </si>
+  <si>
+    <t>xshell</t>
+  </si>
+  <si>
+    <t>exploer</t>
+  </si>
+  <si>
     <t>Tab</t>
   </si>
   <si>
@@ -139,18 +195,27 @@
     <t>CS+  T/N</t>
   </si>
   <si>
+    <t>:tabnew  E</t>
+  </si>
+  <si>
     <t>C  T</t>
   </si>
   <si>
     <t xml:space="preserve">C ] </t>
   </si>
   <si>
+    <t>gh</t>
+  </si>
+  <si>
     <t>Close</t>
   </si>
   <si>
     <t>CS+ W</t>
   </si>
   <si>
+    <t>:clo</t>
+  </si>
+  <si>
     <t>C  W</t>
   </si>
   <si>
@@ -160,6 +225,9 @@
     <t xml:space="preserve">C F4 </t>
   </si>
   <si>
+    <t>:tabclose</t>
+  </si>
+  <si>
     <t>Sidebar/Navijator bar</t>
   </si>
   <si>
@@ -169,6 +237,9 @@
     <t>CS ；</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>C J</t>
   </si>
   <si>
@@ -190,6 +261,9 @@
     <t>CS+ s/d</t>
   </si>
   <si>
+    <t>C   ws/v</t>
+  </si>
+  <si>
     <t>C tab</t>
   </si>
   <si>
@@ -214,6 +288,9 @@
     <t>CS+ l/r</t>
   </si>
   <si>
+    <t>C   I/O</t>
+  </si>
+  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -223,6 +300,9 @@
     <t>A  1/2/3/4</t>
   </si>
   <si>
+    <t>C  ww</t>
+  </si>
+  <si>
     <t>A  E X</t>
   </si>
   <si>
@@ -250,6 +330,9 @@
     <t>Terminal</t>
   </si>
   <si>
+    <t>:ls!</t>
+  </si>
+  <si>
     <t>New</t>
   </si>
   <si>
@@ -259,18 +342,30 @@
     <t>C `</t>
   </si>
   <si>
+    <t>qaiq @ a</t>
+  </si>
+  <si>
     <t>CS+ 5</t>
   </si>
   <si>
     <t xml:space="preserve">C W/D </t>
   </si>
   <si>
+    <t>C   ww</t>
+  </si>
+  <si>
     <t>C  a/e/l/r</t>
   </si>
   <si>
+    <t>:  e bn bp</t>
+  </si>
+  <si>
     <t>A F/B</t>
   </si>
   <si>
+    <t>DRsX</t>
+  </si>
+  <si>
     <t>Word/paragph</t>
   </si>
   <si>
@@ -280,7 +375,10 @@
     <t>CS+  K</t>
   </si>
   <si>
-    <t>C backspace/delete</t>
+    <t>C bs/de</t>
+  </si>
+  <si>
+    <t>yyddDpP</t>
   </si>
   <si>
     <t xml:space="preserve"> CS+  K/T/Q</t>
@@ -292,17 +390,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>CS +</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -311,15 +408,17 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(check)</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> vWb(){}</t>
+  </si>
+  <si>
     <t xml:space="preserve">  C  G/H</t>
   </si>
   <si>
@@ -356,18 +455,33 @@
     <t xml:space="preserve"> Move</t>
   </si>
   <si>
+    <t>wWeEbB</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Focus</t>
   </si>
   <si>
     <t>CA  l/r/up/down</t>
   </si>
   <si>
+    <t>hjkl</t>
+  </si>
+  <si>
     <t>Go</t>
   </si>
   <si>
     <t>C G：line</t>
   </si>
   <si>
+    <t>0^$</t>
+  </si>
+  <si>
+    <t>HML</t>
+  </si>
+  <si>
+    <t>ma  `a</t>
+  </si>
+  <si>
     <t>program</t>
   </si>
   <si>
@@ -705,12 +819,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -736,9 +856,9 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,27 +869,39 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cascadia Code ExtraLight"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -915,8 +1047,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,25 +1063,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor rgb="FFD4F4F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor rgb="FFF5B482"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor rgb="FFFCE6D5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor rgb="FFACD78E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,25 +1093,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor rgb="FF91ACE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor rgb="FF75BD42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC8E5B3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor rgb="FFFEE695"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,6 +1231,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1158,7 +1302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1168,11 +1312,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1181,28 +1325,83 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFC6C6C6"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,88 +1410,29 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -1300,14 +1440,102 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,9 +1639,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,271 +1655,278 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="52">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1747,221 +1980,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1971,9 +1990,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2005,15 +2024,15 @@
         <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2083,132 +2102,167 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -2219,512 +2273,686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I53"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.4545454545455" style="32" customWidth="1"/>
-    <col min="2" max="2" width="13.3636363636364" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.5454545454545" style="24" customWidth="1"/>
-    <col min="4" max="4" width="17.2727272727273" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.1818181818182" style="34" customWidth="1"/>
-    <col min="6" max="6" width="13.8181818181818" style="24" customWidth="1"/>
-    <col min="7" max="7" width="15.0909090909091" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="8.72727272727273" style="24"/>
+    <col min="1" max="1" width="14.4363636363636" style="28" customWidth="1"/>
+    <col min="2" max="2" width="13.4363636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="39" customWidth="1"/>
+    <col min="7" max="7" width="13.8636363636364" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1454545454545" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" spans="1:9">
-      <c r="A1" s="32" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24" t="s">
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="40"/>
-      <c r="B3" s="33" t="s">
+      <c r="C2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="E2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="40"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="37" t="s">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
-      <c r="C6" s="41" t="s">
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A3" s="46"/>
+      <c r="B3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="40"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="37" t="s">
+      <c r="C3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="F3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="G3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="24" t="s">
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="40"/>
-      <c r="B9" s="33" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="24" t="s">
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A4" s="46"/>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="M4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="40"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="42"/>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="37" t="s">
+    <row r="5" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="C5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="E5" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="24" t="s">
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A6" s="46"/>
+      <c r="C6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="D6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="40"/>
-      <c r="B13" s="33" t="s">
+      <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="39" t="s">
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:12">
+      <c r="A7" s="46"/>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:12">
+      <c r="A8" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="C8" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43" t="s">
+      <c r="D8" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="44" t="s">
+      <c r="E8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43" t="s">
+      <c r="G8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="24" t="s">
+    </row>
+    <row r="9" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A9" s="46"/>
+      <c r="B9" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="24" t="s">
+      <c r="C9" s="31" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43" t="s">
+      <c r="D9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="24" t="s">
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="44"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="38"/>
-      <c r="E17" s="44"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="40"/>
-      <c r="B18" s="33" t="s">
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:12">
+      <c r="A10" s="46"/>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="24" t="s">
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:12">
+      <c r="A11" s="47"/>
+      <c r="G11" s="31"/>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="24" t="s">
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="B12" s="41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="40"/>
-      <c r="E19" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="40"/>
-      <c r="B20" s="33" t="s">
+      <c r="E12" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="F12" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="G12" s="31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="40"/>
-      <c r="B21" s="33" t="s">
+      <c r="H12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="J12" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="40"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="40"/>
-      <c r="B23" s="33" t="s">
+    </row>
+    <row r="13" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A13" s="46"/>
+      <c r="B13" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E13" s="45" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="40"/>
-      <c r="B24" s="33" t="s">
+      <c r="F13" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="G13" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="34" t="s">
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A14" s="46"/>
+      <c r="B14" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="C14" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="33" t="s">
+      <c r="F14" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A15" s="46"/>
+      <c r="B15" s="41" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="40"/>
-      <c r="B26" s="33" t="s">
+      <c r="C15" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D15" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="33" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="G15" s="31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="40"/>
-      <c r="H28" s="24" t="s">
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A16" s="46"/>
+      <c r="B16" s="41" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="37" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="40"/>
-      <c r="B30" s="33" t="s">
+      <c r="E16" s="32"/>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A17" s="46"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="45"/>
+      <c r="E17" s="32"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A18" s="46"/>
+      <c r="B18" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C18" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D18" s="31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="38" t="s">
+      <c r="E18" s="45" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="24" t="s">
+      <c r="F18" s="39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="40"/>
-      <c r="C33" s="34" t="s">
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A19" s="46"/>
+      <c r="E19" s="31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="40"/>
-      <c r="C34" s="24" t="s">
+      <c r="F19" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A20" s="46"/>
+      <c r="B20" s="41" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="40"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="37" t="s">
+      <c r="C20" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="G20" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A21" s="46"/>
+      <c r="B21" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="C21" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="D21" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A22" s="46"/>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A23" s="46"/>
+      <c r="B23" s="41" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="40"/>
-      <c r="B37" s="33" t="s">
+      <c r="E23" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="F23" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A24" s="46"/>
+      <c r="B24" s="41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="40"/>
-      <c r="B38" s="33" t="s">
+      <c r="C24" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="D24" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F24" s="39" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="40"/>
-      <c r="B39" s="33" t="s">
+      <c r="I24" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="24" t="s">
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A25" s="46"/>
+      <c r="B25" s="41" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="42"/>
-      <c r="C40" s="24" t="s">
+      <c r="C25" s="31" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="40"/>
-      <c r="B41" s="33" t="s">
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A26" s="46"/>
+      <c r="B26" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C26" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D26" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A27" s="46"/>
+      <c r="B27" s="41" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="40"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="40"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="40"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="37" t="s">
+      <c r="C27" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A28" s="46"/>
+      <c r="I28" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="40"/>
-      <c r="B46" s="33" t="s">
+    </row>
+    <row r="29" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A29" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="F29" s="39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="40"/>
-      <c r="B47" s="33" t="s">
+    <row r="30" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A30" s="46"/>
+      <c r="B30" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C30" s="45" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="40"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="40"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="40"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="40"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="40"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="42"/>
+      <c r="D30" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A31" s="46"/>
+      <c r="B31" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A32" s="46"/>
+      <c r="B32" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A33" s="46"/>
+      <c r="C33" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A34" s="46"/>
+      <c r="C34" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A35" s="46"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A36" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A37" s="46"/>
+      <c r="B37" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A38" s="46"/>
+      <c r="B38" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A39" s="46"/>
+      <c r="B39" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A40" s="47"/>
+      <c r="C40" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A41" s="46"/>
+      <c r="B41" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A42" s="46"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A43" s="46"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A44" s="46"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A45" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A46" s="46"/>
+      <c r="B46" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A47" s="46"/>
+      <c r="B47" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A48" s="46"/>
+      <c r="F48" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A49" s="46"/>
+      <c r="F49" s="39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A50" s="46"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A51" s="46"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A52" s="46"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A53" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A11"/>
@@ -2732,1171 +2960,1191 @@
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A45:A53"/>
+    <mergeCell ref="J12:J27"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="F30" r:id="rId1" display="qaiq @ a"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="82.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="9.49090909090909" style="24" customWidth="1"/>
-    <col min="4" max="4" width="7.50909090909091" style="24" customWidth="1"/>
-    <col min="5" max="5" width="7.63636363636364" customWidth="1"/>
+    <col min="1" max="1" width="13.5727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.7181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.43636363636364" style="28" customWidth="1"/>
+    <col min="4" max="4" width="7.57272727272727" style="29" customWidth="1"/>
+    <col min="5" max="5" width="7.57272727272727" style="1" customWidth="1"/>
+    <col min="6" max="15" width="13.5727272727273" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5727272727273" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="26" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="26" t="str">
+      <c r="D1" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="31" t="str">
         <f t="shared" ref="C2:C43" si="0">MID(B2,5,3)</f>
         <v>hl </v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="32">
         <f t="shared" ref="D2:D43" si="1">VLOOKUP(A2,$O$18:$P$26,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="str">
+      <c r="E2" s="8" t="str">
         <f t="shared" ref="E2:E43" si="2">MID(B2,SEARCH("http",B2),LEN(B2)-SEARCH("http",B2))</f>
         <v>https://leetprogram.cn/problemset/all/</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="26" t="str">
+    <row r="3" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="31" t="str">
         <f t="shared" si="0"/>
         <v>hn </v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="25" t="str">
+      <c r="E3" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.nowprogramr.com/exam/oj?page=1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="26" t="str">
+    <row r="4" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="31" t="str">
         <f t="shared" si="0"/>
         <v>ht </v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" s="25" t="str">
+      <c r="E4" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://time.geekbang.org/</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="26" t="str">
+    <row r="5" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="31" t="str">
         <f t="shared" si="0"/>
         <v>hg </v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="25" t="str">
+      <c r="E5" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://github.com/trending</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="26" t="str">
+    <row r="6" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="31" t="str">
         <f t="shared" si="0"/>
         <v>ho </v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="25" t="str">
+      <c r="E6" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://web.okjike.com/</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="26" t="str">
+    <row r="7" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="31" t="str">
         <f t="shared" si="0"/>
         <v>hj </v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="25" t="str">
+      <c r="E7" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://juejin.cn/recommended</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="26" t="str">
+    <row r="8" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="31" t="str">
         <f t="shared" si="0"/>
         <v>h1 </v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E8" s="25" t="str">
+      <c r="E8" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.yuque.com/search?q=</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="26" t="str">
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="31" t="str">
         <f t="shared" si="0"/>
         <v>g3 </v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E9" s="25" t="str">
+      <c r="E9" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://36kr.com/</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="26" t="str">
+    <row r="10" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="31" t="str">
         <f t="shared" si="0"/>
         <v>g0 </v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E10" s="25" t="str">
+      <c r="E10" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://xueqiu.com/</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="26" t="str">
+    <row r="11" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="31" t="str">
         <f t="shared" si="0"/>
         <v>g1 </v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E11" s="25" t="str">
+      <c r="E11" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.semrush.com/blog/most-visited-websites/</v>
       </c>
-      <c r="O11" t="s">
-        <v>110</v>
-      </c>
-      <c r="P11">
+      <c r="O11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="26" t="str">
+    <row r="12" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="31" t="str">
         <f t="shared" si="0"/>
         <v>g2 </v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E12" s="25" t="str">
+      <c r="E12" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.v2ex.com/</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="26" t="str">
+    <row r="13" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="31" t="str">
         <f t="shared" si="0"/>
         <v>go </v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="8" t="str">
         <f t="shared" si="2"/>
         <v>http://www.google.com</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="26" t="str">
+    <row r="14" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="31" t="str">
         <f t="shared" si="0"/>
         <v>hc </v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E14" s="25" t="str">
+      <c r="E14" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://chat.openai.com/</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="26" t="str">
+    <row r="15" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gk </v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E15" s="25" t="str">
+      <c r="E15" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://kimi.moonshot.cn/</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="26" t="str">
+    <row r="16" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gp </v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="E16" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://tophub.today/apple/podcasts</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="26" t="str">
+    <row r="17" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gb </v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E17" s="25" t="str">
+      <c r="E17" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.bilibili.com/</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="26" t="str">
+    <row r="18" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="31" t="str">
         <f t="shared" si="0"/>
         <v>hk </v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E18" s="25" t="str">
+      <c r="E18" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://ke.qq.com/"</v>
       </c>
-      <c r="O18" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="26" t="str">
+      <c r="O18" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A19" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="31" t="str">
         <f t="shared" si="0"/>
         <v>ga </v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E19" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.ahhhhfs.com/recourse/programming-development/"</v>
       </c>
-      <c r="O19" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19">
+      <c r="O19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="26" t="str">
+    <row r="20" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="31" t="str">
         <f t="shared" si="0"/>
         <v>ge </v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E20" s="25" t="str">
+      <c r="E20" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.edx.org/</v>
       </c>
-      <c r="O20" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20">
+      <c r="O20" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20" s="36">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="26" t="str">
+    <row r="21" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gc </v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E21" s="25" t="str">
+      <c r="E21" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.coursera.org/"</v>
       </c>
-      <c r="O21" t="s">
-        <v>125</v>
-      </c>
-      <c r="P21">
+      <c r="O21" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P21" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="26" t="str">
+    <row r="22" ht="18.75" customHeight="1" spans="1:15">
+      <c r="A22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gu </v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E22" s="25" t="str">
+      <c r="E22" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.udacity.com/"</v>
       </c>
-      <c r="O22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="26" t="str">
+      <c r="O22" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gw </v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E23" s="25" t="str">
+      <c r="E23" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://weread.qq.com/web/category/newrating_publish</v>
       </c>
-      <c r="O23" t="s">
-        <v>129</v>
-      </c>
-      <c r="P23">
+      <c r="O23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="P23" s="36">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="26" t="str">
+    <row r="24" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A24" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gy </v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E24" s="25" t="str">
+      <c r="E24" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/</v>
       </c>
-      <c r="O24" t="s">
-        <v>96</v>
-      </c>
-      <c r="P24">
+      <c r="O24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="26" t="str">
+    <row r="25" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gd </v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E25" s="25" t="str">
+      <c r="E25" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://discord.com/guild-discovery</v>
       </c>
-      <c r="O25" t="s">
-        <v>132</v>
-      </c>
-      <c r="P25">
+      <c r="O25" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="36">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="26" t="str">
+    <row r="26" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A26" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gn </v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E26" s="25" t="str">
+      <c r="E26" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.nature.com/news</v>
       </c>
-      <c r="O26" t="s">
-        <v>105</v>
-      </c>
-      <c r="P26">
+      <c r="O26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P26" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="26" t="str">
+    <row r="27" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gr </v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E27" s="25" t="str">
+      <c r="E27" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.reddit.com/</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="26" t="str">
+    <row r="28" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gx </v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E28" s="25" t="str">
+      <c r="E28" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.xiaohongshu.com/explore</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="26" t="str">
+    <row r="29" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gm </v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E29" s="25" t="str">
+      <c r="E29" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://medium.com/</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="26" t="str">
+    <row r="30" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="31" t="str">
         <f t="shared" si="0"/>
         <v>ce </v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E30" s="25" t="str">
+      <c r="E30" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.economist.com/</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="26" t="str">
+    <row r="31" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gt </v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E31" s="25" t="str">
+      <c r="E31" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://twitter.com/home/</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="26" t="str">
+    <row r="32" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gz </v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E32" s="25" t="str">
+      <c r="E32" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.zhihu.com/knowledge-plan/hot-question/hot/0/week</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="26" t="str">
+    <row r="33" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="31" t="str">
         <f t="shared" si="0"/>
         <v>gf </v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E33" s="25" t="str">
+      <c r="E33" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.facebook.com/</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="26" t="str">
+    <row r="34" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="31" t="str">
         <f t="shared" si="0"/>
         <v>he </v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E34" s="25" t="str">
+      <c r="E34" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://edition.cnn.com/world</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="26" t="str">
+    <row r="35" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="31" t="str">
         <f t="shared" si="0"/>
         <v>hy </v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E35" s="25" t="str">
+      <c r="E35" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://news.ycombinator.com/</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="26" t="str">
+    <row r="36" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="31" t="str">
         <f t="shared" si="0"/>
         <v>hw </v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E36" s="25" t="str">
+      <c r="E36" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.wsj.com/</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="26" t="str">
+    <row r="37" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A37" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="31" t="str">
         <f t="shared" si="0"/>
         <v>cw </v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E37" s="25" t="str">
+      <c r="E37" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://en.wikipedia.org/wiki/Main_Page</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="26" t="str">
+    <row r="38" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="31" t="str">
         <f t="shared" si="0"/>
         <v>zt </v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E38" s="25" t="str">
+      <c r="E38" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.tadu.com/</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="26" t="str">
+    <row r="39" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A39" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="31" t="str">
         <f t="shared" si="0"/>
         <v>zi </v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E39" s="25" t="str">
+      <c r="E39" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.instagram.com/</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="26" t="str">
+    <row r="40" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A40" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="31" t="str">
         <f t="shared" si="0"/>
         <v>zr </v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E40" s="25" t="str">
+      <c r="E40" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.rottentomatoes.com/m/bottoms</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="26" t="str">
+    <row r="41" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="31" t="str">
         <f t="shared" si="0"/>
         <v>zs </v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E41" s="25" t="str">
+      <c r="E41" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://open.spotify.com/</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="26" t="str">
+    <row r="42" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A42" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="31" t="str">
         <f t="shared" si="0"/>
         <v>zc </v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E42" s="25" t="str">
+      <c r="E42" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://cupfox.app/</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="26" t="str">
+    <row r="43" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="31" t="str">
         <f t="shared" si="0"/>
         <v>js </v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E43" s="25" t="str">
+      <c r="E43" s="8" t="str">
         <f t="shared" si="2"/>
         <v>https://sspai.com/</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="5" width="13.5727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5727272727273" style="2" customWidth="1"/>
+    <col min="7" max="14" width="13.5727272727273" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="4">
+      <c r="A1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="6">
         <v>0.05</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>163</v>
+      <c r="G1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" ht="46" customHeight="1" spans="1:14">
-      <c r="A2" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" t="s">
-        <v>175</v>
-      </c>
-      <c r="M2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>177</v>
+      <c r="A2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" ht="38" customHeight="1" spans="1:14">
-      <c r="A3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="N3" s="18"/>
+      <c r="A3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" ht="44" customHeight="1" spans="1:14">
-      <c r="A4" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L4" t="s">
-        <v>201</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="N4" s="19"/>
+      <c r="A4" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" ht="46" customHeight="1" spans="1:14">
-      <c r="A5" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="12:12">
-      <c r="L10" s="23" t="s">
-        <v>211</v>
+      <c r="A5" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1"/>
+    <row r="7" ht="18.75" customHeight="1"/>
+    <row r="8" ht="18.75" customHeight="1"/>
+    <row r="9" ht="18.75" customHeight="1"/>
+    <row r="10" ht="18.75" customHeight="1" spans="12:12">
+      <c r="L10" s="27" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3906,7 +4154,7 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="E5:I5"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>